--- a/Report/data.xlsx
+++ b/Report/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clayt\repos\CSCE313_PA1\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{59D58F8A-FC36-4AFA-A3F3-43E9BD473E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C3FEFE43-A5C3-43FD-B6EF-C5B67555EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -521,8 +521,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -644,82 +645,546 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1248759842519685"/>
+                  <c:y val="-0.12711431904345291"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$2:$E$25</c:f>
+              <c:f>data!$D$2:$D$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="41">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="65">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="73">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="81">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="89">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="97">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="113">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="121">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="129">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>541</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="137">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>2432</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="145">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>10307</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="153">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="160">
                   <c:v>42438</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="161">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="168">
                   <c:v>172233</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="169">
+                  <c:v>172233</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>693964</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="171">
+                  <c:v>693964</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2785999</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>2785999</c:v>
                 </c:pt>
               </c:numCache>
@@ -727,81 +1192,531 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$25</c:f>
+              <c:f>data!$E$2:$E$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.3E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2160000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.456</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.226</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3929999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.7610000000000001</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5410000000000004</c:v>
+                  <c:v>0.373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6189999999999998</c:v>
+                  <c:v>0.109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1579999999999995</c:v>
+                  <c:v>0.36199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.308999999999999</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.836</c:v>
+                  <c:v>0.52600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.322000000000003</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126.096</c:v>
+                  <c:v>0.59399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>539.56100000000004</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2099.58</c:v>
+                  <c:v>0.40200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8500.5499999999993</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34161.699999999997</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>138199</c:v>
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.881</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.028</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.494</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.071</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.548</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.7770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.417</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.693</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.6110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.645</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.028</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.6580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.069</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.4450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.5229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.149</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.306</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.3450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.0239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.2839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.3739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.9090000000000007</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.5820000000000007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.7229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.6219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.211</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>10.615</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.0279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>25.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24.888000000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>24.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24.945</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>27.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>115.48399999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>111.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>117.18600000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>110.348</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>107.453</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>118.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>130.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>121.944</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>526.15200000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>525.45799999999997</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>481.56900000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>503.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>496.149</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>525.649</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>510.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>503.02</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2083.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2116.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2075.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2074.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2046.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2102.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2100.67</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2039.16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8468.65</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8443.08</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>34173.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>34069.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>137863</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>137876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,82 +2019,582 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15872309711286089"/>
+                  <c:y val="7.15952172645086E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>data!$E$2:$E$25</c:f>
+              <c:f>data!$D$2:$D$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="41">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="65">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="73">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="81">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="89">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="97">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="113">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="121">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="129">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>541</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="137">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>2432</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="145">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>10307</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="153">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="160">
                   <c:v>42438</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="161">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="168">
                   <c:v>172233</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="169">
+                  <c:v>172233</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>693964</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="171">
+                  <c:v>693964</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2785999</c:v>
+                </c:pt>
+                <c:pt idx="173">
                   <c:v>2785999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1187,81 +2602,531 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$F$2:$F$25</c:f>
+              <c:f>data!$F$2:$F$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
-                  <c:v>-5.4422223286050748</c:v>
+                  <c:v>-2.6882475738060303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.4422223286050744</c:v>
+                  <c:v>-3.575550768806933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.91866037254806121</c:v>
+                  <c:v>-2.9004220937496661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0679388286565756</c:v>
+                  <c:v>-4.4228486291941369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80735492205760406</c:v>
+                  <c:v>-4.4228486291941369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7417053077409407E-2</c:v>
+                  <c:v>-0.89404012293933532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4461480318188744</c:v>
+                  <c:v>-1.9805015938249322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1479578813871014</c:v>
+                  <c:v>-4.0173835210859723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54201035553660915</c:v>
+                  <c:v>-0.85331593271276662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0792927672728538</c:v>
+                  <c:v>0.64605557302609473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7625614300488894</c:v>
+                  <c:v>-0.26787944515560119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5263192578171432</c:v>
+                  <c:v>-3.7722610630529876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2541404842007267</c:v>
+                  <c:v>-0.98617685933832155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7266132708063986</c:v>
+                  <c:v>-2.2164073967529934</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0282155071304362</c:v>
+                  <c:v>-1.016111067156366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7343302702514034</c:v>
+                  <c:v>-0.9493305859523552</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4377603935399272</c:v>
+                  <c:v>-0.64245406624442714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5021396216772258</c:v>
+                  <c:v>-1.584745299843729</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9783787011927014</c:v>
+                  <c:v>-0.52087595961949218</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0756422624122877</c:v>
+                  <c:v>-2.0099154790312257</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.035885044687559</c:v>
+                  <c:v>-0.91130319036311591</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.053340473747969</c:v>
+                  <c:v>-0.19845093872383832</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.060092149605751</c:v>
+                  <c:v>-0.65392646740666394</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.076387650942575</c:v>
+                  <c:v>-1.742969305058623</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.74233742475071707</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2374408560150342</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1270117631898076</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1583622930738837</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6177696241052412E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.45570632454491111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.7660917224794772</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.23067181773500128</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55331023537214608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85654072746838106</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.1907275775759154</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.9105430052180221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2903523010076598</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.2744368457017603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6836017677164139</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.44472582206146699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.016111067156366</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.6129381929883644E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.0758728016986201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.69713920182948275</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.16841865162496325</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63180355031889335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.40646560844174784</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.43386458262986233</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0469690555162714</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.76787072675588175</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.85015092936961001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.57092954783569616</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.70705008572893679</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.82325586590696564</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9920212695374567E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.49593701127224005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.78663752364728423</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.0356374895067213</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.5887871652357024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.89159811928378363</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13802129789737461</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.54300452213022588</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.17316361900918903</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.0794415416798357</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.3639484279052308</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.353821874956326</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.8388510767619055</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.73396917508020043</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.51751461191678738</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.2073117055914506</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.85802182375017932</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.48980625654191517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4386495914538187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.26136476413440751</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.78298788455973489</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.40145708671062558</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3805277662255535</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.8592791465611674E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8258712117090268E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.43696377516753537</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2113455586553492</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0213712083246624</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.10616019582839072</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.34854196070854343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5410506604060399</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.2346480372209236E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75987081260285338</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99842356141267741</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2731256630142527</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.59056059178484421</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1969481893889715</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2122385487429688</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5368663887187113</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.70754306084367768</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2638442013633264</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0381543196309957</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7805299872765061</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2839847422953208</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89445403726498074</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1098818809263404</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8121098710269883</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7796868879937857</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1079023355752025</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5385861714621494</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4298326631343741</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3485924939358791</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.7729163814265751</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8031938468537181</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7029282555214393</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6946977563849239</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.875334392813959</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.312916891315115</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6102375926046646</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4781896258241463</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4445632692438664</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.8162894669713328</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.1453584475098033</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.6930434962888972</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.9202992578332867</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.6688382557155479</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1216625571137984</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1998876947557031</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8380067203933748</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4756779222545759</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.5576923195136478</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.0122327919863858</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.1870620017385067</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1496669865693332</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.9055344834868997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0310388024516683</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.204641448663919</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1412419425852827</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.3234655705734011</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.3622680951552195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.615022290728001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0157027007128292</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.3643604916101815</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.2341584483993575</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.214385759595336</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.3305960744786085</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.1975296068486023</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.4292664015897478</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.2166734013130007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.2973912129365663</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.7491319922274116</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.7152614937817461</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.7637624160828089</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.7036390083880706</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.6770535426615378</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.7781314045156851</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.8694326477386625</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.8035619229595401</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.2655901443769739</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.2642702632409053</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.177049523152089</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.2213393923447535</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.2068762848387191</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.2646336896134862</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.2354435255303216</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.220629930740686</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.6418284486547128</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.657485985943687</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.6378128135621797</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.6375814838005738</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.6239840189854036</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.6508490975948771</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.6500116204456932</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.6202932373340149</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.0441263888743144</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.0411024499295962</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10.439205768895157</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10.436151964509103</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>11.834015717409892</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>11.83411000947601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +3424,1554 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Taken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17718503937007873"/>
+                  <c:y val="0.27815142898804318"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$D$2:$D$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>172233</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>172233</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>693964</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>693964</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2785999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2785999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$E$2:$E$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.881</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.028</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.494</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.9769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.071</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.548</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.7770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.417</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.693</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.6110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.645</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.028</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.6580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.069</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.4450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.5229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.149</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>23.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.306</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.3450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.0239999999999991</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.2839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.3739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.9090000000000007</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.5820000000000007</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.7229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.6219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.211</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>10.615</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.0279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>25.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24.888000000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>24.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30.853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24.945</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>27.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>115.48399999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>111.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>117.18600000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>110.348</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>107.453</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>118.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>130.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>121.944</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>526.15200000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>525.45799999999997</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>481.56900000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>503.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>496.149</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>525.649</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>510.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>503.02</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2083.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2116.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2075.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2074.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2046.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2102.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2100.67</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2039.16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8468.65</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8443.08</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>34173.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>34069.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>137863</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>137876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC5B-446E-9BBE-35DE7745D5B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1389363279"/>
+        <c:axId val="1389361199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1389363279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Allocate/Free</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Cycles</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389361199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1389361199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389363279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2115,20 +5527,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2155,16 +6083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2189,23 +6117,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A380AB-385A-4DAC-97D6-98559E06F9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0">
-  <autoFilter ref="A1:F25"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
-    <sortCondition ref="E1:E25"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F175" totalsRowShown="0">
+  <autoFilter ref="A1:F175"/>
   <tableColumns count="6">
     <tableColumn id="1" name="n"/>
     <tableColumn id="2" name="m"/>
     <tableColumn id="3" name="Result"/>
+    <tableColumn id="5" name="Num alloc/free cycles"/>
     <tableColumn id="4" name="Time Taken"/>
-    <tableColumn id="5" name="Num alloc/free cycles"/>
     <tableColumn id="6" name="Log Space" dataDxfId="0">
-      <calculatedColumnFormula>LOG(Table1[[#This Row],[Time Taken]], 2)</calculatedColumnFormula>
+      <calculatedColumnFormula>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2509,16 +6470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -2552,14 +6513,14 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2.3E-2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F2">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>-5.4422223286050748</v>
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-2.6882475738060303</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,20 +6528,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0.184</v>
-      </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>-2.4422223286050744</v>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-3.575550768806933</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2588,20 +6549,20 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
       <c r="D4">
-        <v>0.52900000000000003</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>-0.91866037254806121</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-2.9004220937496661</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,20 +6570,20 @@
         <v>1</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0.47699999999999998</v>
-      </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>-1.0679388286565756</v>
+        <v>1.2E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-4.4228486291941369</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2630,41 +6591,41 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>0.80735492205760406</v>
+        <v>1.2E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-4.4228486291941369</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.98799999999999999</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>-1.7417053077409407E-2</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F7" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.89404012293933532</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,20 +6633,20 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0.36699999999999999</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>-1.4461480318188744</v>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.9805015938249322</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,20 +6654,20 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2.2160000000000002</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>1.1479578813871014</v>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-4.0173835210859723</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2714,335 +6675,3485 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1.456</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="F10">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>0.54201035553660915</v>
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.85331593271276662</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>4.226</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>2.0792927672728538</v>
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.64605557302609473</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
       <c r="C12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3.3929999999999998</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>1.7625614300488894</v>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.26787944515560119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
       <c r="D13">
-        <v>5.7610000000000001</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>65</v>
-      </c>
-      <c r="F13">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>2.5263192578171432</v>
+        <v>2.3E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-3.7722610630529876</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
       <c r="C14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>9.5410000000000004</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>3.2541404842007267</v>
+        <v>0.373</v>
+      </c>
+      <c r="F14" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.98617685933832155</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>6.6189999999999998</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>106</v>
-      </c>
-      <c r="F15">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>2.7266132708063986</v>
+        <v>0.109</v>
+      </c>
+      <c r="F15" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-2.2164073967529934</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>8.1579999999999995</v>
-      </c>
       <c r="E16">
-        <v>119</v>
-      </c>
-      <c r="F16">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>3.0282155071304362</v>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.016111067156366</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
       <c r="C17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>13.308999999999999</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>152</v>
-      </c>
-      <c r="F17">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>3.7343302702514034</v>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.9493305859523552</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>10.836</v>
-      </c>
       <c r="E18">
-        <v>189</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="F18">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>3.4377603935399272</v>
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.64245406624442714</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
       <c r="C19">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>45.322000000000003</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>541</v>
-      </c>
-      <c r="F19">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>5.5021396216772258</v>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.584745299843729</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>126.096</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>2432</v>
-      </c>
-      <c r="F20">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>6.9783787011927014</v>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.52087595961949218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
       <c r="C21">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>539.56100000000004</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>10307</v>
-      </c>
-      <c r="F21">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>9.0756422624122877</v>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-2.0099154790312257</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>253</v>
-      </c>
       <c r="D22">
-        <v>2099.58</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>42438</v>
-      </c>
-      <c r="F22">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>11.035885044687559</v>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.91130319036311591</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
       <c r="C23">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>8500.5499999999993</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>172233</v>
-      </c>
-      <c r="F23">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>13.053340473747969</v>
+        <v>0.82</v>
+      </c>
+      <c r="F23" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.19845093872383832</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
       <c r="C24">
-        <v>1021</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>34161.699999999997</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>693964</v>
-      </c>
-      <c r="F24">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>15.060092149605751</v>
+        <v>0.52</v>
+      </c>
+      <c r="F24" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.65392646740666394</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="E25">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.742969305058623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F26">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.74233742475071707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1.268</v>
+      </c>
+      <c r="F27" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.2374408560150342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.1270117631898076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0.314</v>
+      </c>
+      <c r="F29" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.1583622930738837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>8.6177696241052412E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.45570632454491111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.7660917224794772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.23067181773500128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="F34">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.55331023537214608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>2.355</v>
+      </c>
+      <c r="F35" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.85654072746838106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.1907275775759154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.9105430052180221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0.748</v>
+      </c>
+      <c r="F38" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.2903523010076598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>0.76</v>
+      </c>
+      <c r="F39" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.2744368457017603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.6836017677164139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.44472582206146699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F42">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.016111067156366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F43">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.6129381929883644E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F44" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.0758728016986201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>2.008</v>
+      </c>
+      <c r="F45" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.69713920182948275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F46" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.16841865162496325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1.881</v>
+      </c>
+      <c r="F47" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.63180355031889335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F48" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.40646560844174784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F49" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.43386458262986233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="F50" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.0469690555162714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F51" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.76787072675588175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>2.34</v>
+      </c>
+      <c r="F52" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.85015092936961001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F53" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.57092954783569616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>2.028</v>
+      </c>
+      <c r="F54" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.70705008572893679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>0.439</v>
+      </c>
+      <c r="F55" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.82325586590696564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>1.004</v>
+      </c>
+      <c r="F56" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.9920212695374567E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F57" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.49593701127224005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="F58">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.78663752364728423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F59" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.0356374895067213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F60" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.5887871652357024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>0.41</v>
+      </c>
+      <c r="F61" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.89159811928378363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="F62" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.13802129789737461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F63" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.54300452213022588</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F64" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.17316361900918903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>0.125</v>
+      </c>
+      <c r="F65" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="F66">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.3639484279052308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F67" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.353821874956326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>0.159</v>
+      </c>
+      <c r="F68" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.8388510767619055</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>0.48</v>
+      </c>
+      <c r="F69" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.73396917508020043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F70" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.51751461191678738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F71" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-1.2073117055914506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F72" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.85802182375017932</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="F73" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.48980625654191517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+      <c r="E74">
+        <v>4.2149999999999999</v>
+      </c>
+      <c r="F74">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.4386495914538187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75">
+        <v>0.77</v>
+      </c>
+      <c r="F75" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-0.26136476413440751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>27</v>
+      </c>
+      <c r="E76">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="F76" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.78298788455973489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77">
+        <v>1.494</v>
+      </c>
+      <c r="F77" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.40145708671062558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>27</v>
+      </c>
+      <c r="E78">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="F78" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.3805277662255535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+      <c r="E79">
+        <v>1.071</v>
+      </c>
+      <c r="F79" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.8592791465611674E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="E80">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="F80" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.8258712117090268E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
+      </c>
+      <c r="E81">
+        <v>1.548</v>
+      </c>
+      <c r="F81" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.43696377516753537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>44</v>
+      </c>
+      <c r="E82">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="F82">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.2113455586553492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>44</v>
+      </c>
+      <c r="E83">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="F83" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.0213712083246624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>44</v>
+      </c>
+      <c r="E84">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="F84" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.10616019582839072</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>44</v>
+      </c>
+      <c r="E85">
+        <v>1.417</v>
+      </c>
+      <c r="F85" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.34854196070854343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>44</v>
+      </c>
+      <c r="E86">
+        <v>12.693</v>
+      </c>
+      <c r="F86" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.5410506604060399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>44</v>
+      </c>
+      <c r="E87">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F87" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>-5.2346480372209236E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>44</v>
+      </c>
+      <c r="E88">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="F88" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.75987081260285338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>44</v>
+      </c>
+      <c r="E89">
+        <v>2.714</v>
+      </c>
+      <c r="F89" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.99842356141267741</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>65</v>
+      </c>
+      <c r="E90">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="F90">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.2731256630142527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>65</v>
+      </c>
+      <c r="E91">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="F91" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.59056059178484421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>3.31</v>
+      </c>
+      <c r="F92" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.1969481893889715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <v>3.3610000000000002</v>
+      </c>
+      <c r="F93" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.2122385487429688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>65</v>
+      </c>
+      <c r="E94">
+        <v>12.64</v>
+      </c>
+      <c r="F94" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.5368663887187113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>65</v>
+      </c>
+      <c r="E95">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="F95" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.70754306084367768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>65</v>
+      </c>
+      <c r="E96">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.2638442013633264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>65</v>
+      </c>
+      <c r="E97">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="F97" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.0381543196309957</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>90</v>
+      </c>
+      <c r="E98">
+        <v>5.9329999999999998</v>
+      </c>
+      <c r="F98">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.7805299872765061</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>90</v>
+      </c>
+      <c r="E99">
+        <v>3.6110000000000002</v>
+      </c>
+      <c r="F99" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.2839847422953208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>90</v>
+      </c>
+      <c r="E100">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="F100" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>0.89445403726498074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>90</v>
+      </c>
+      <c r="E101">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="F101" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.1098818809263404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>90</v>
+      </c>
+      <c r="E102">
+        <v>16.645</v>
+      </c>
+      <c r="F102" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.8121098710269883</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>13</v>
+      </c>
+      <c r="D103">
+        <v>90</v>
+      </c>
+      <c r="E103">
+        <v>5.9279999999999999</v>
+      </c>
+      <c r="F103" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.7796868879937857</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>90</v>
+      </c>
+      <c r="E104">
+        <v>3.028</v>
+      </c>
+      <c r="F104" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.1079023355752025</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>90</v>
+      </c>
+      <c r="E105">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="F105" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.5385861714621494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>106</v>
+      </c>
+      <c r="E106">
+        <v>4.1779999999999999</v>
+      </c>
+      <c r="F106">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.4298326631343741</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>3.8519999999999999</v>
+      </c>
+      <c r="F107" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.3485924939358791</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>5.8879999999999999</v>
+      </c>
+      <c r="F108" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.7729163814265751</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>106</v>
+      </c>
+      <c r="E109">
+        <v>6.069</v>
+      </c>
+      <c r="F109" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.8031938468537181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>106</v>
+      </c>
+      <c r="E110">
+        <v>5.49</v>
+      </c>
+      <c r="F110" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.7029282555214393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>106</v>
+      </c>
+      <c r="E111">
+        <v>5.4450000000000003</v>
+      </c>
+      <c r="F111" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.6946977563849239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>106</v>
+      </c>
+      <c r="E112">
+        <v>6.5229999999999997</v>
+      </c>
+      <c r="F112" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.875334392813959</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="F113" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.312916891315115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>119</v>
+      </c>
+      <c r="E114">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="F114">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.6102375926046646</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <v>119</v>
+      </c>
+      <c r="E115">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="F115" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.4781896258241463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <v>119</v>
+      </c>
+      <c r="E116">
+        <v>4.24</v>
+      </c>
+      <c r="F116" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.4445632692438664</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>119</v>
+      </c>
+      <c r="E117">
+        <v>6.149</v>
+      </c>
+      <c r="F117" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.8162894669713328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118">
+        <v>119</v>
+      </c>
+      <c r="E118">
+        <v>23.228000000000002</v>
+      </c>
+      <c r="F118" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.1453584475098033</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>119</v>
+      </c>
+      <c r="E119">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="F119" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.6930434962888972</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+      <c r="D120">
+        <v>119</v>
+      </c>
+      <c r="E120">
+        <v>6.8230000000000004</v>
+      </c>
+      <c r="F120" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.9202992578332867</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121">
+        <v>119</v>
+      </c>
+      <c r="E121">
+        <v>5.306</v>
+      </c>
+      <c r="F121" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.6688382557155479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>17</v>
+      </c>
+      <c r="D122">
+        <v>152</v>
+      </c>
+      <c r="E122">
+        <v>8.3450000000000006</v>
+      </c>
+      <c r="F122">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.1216625571137984</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>17</v>
+      </c>
+      <c r="D123">
+        <v>152</v>
+      </c>
+      <c r="E123">
+        <v>9.0239999999999991</v>
+      </c>
+      <c r="F123" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.1998876947557031</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>152</v>
+      </c>
+      <c r="E124">
+        <v>6.2839999999999998</v>
+      </c>
+      <c r="F124" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.8380067203933748</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>17</v>
+      </c>
+      <c r="D125">
+        <v>152</v>
+      </c>
+      <c r="E125">
+        <v>4.3739999999999997</v>
+      </c>
+      <c r="F125" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.4756779222545759</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>152</v>
+      </c>
+      <c r="E126">
+        <v>12.906000000000001</v>
+      </c>
+      <c r="F126" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.5576923195136478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>152</v>
+      </c>
+      <c r="E127">
+        <v>7.48</v>
+      </c>
+      <c r="F127" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.0122327919863858</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>17</v>
+      </c>
+      <c r="D128">
+        <v>152</v>
+      </c>
+      <c r="E128">
+        <v>8.9090000000000007</v>
+      </c>
+      <c r="F128" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.1870620017385067</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>17</v>
+      </c>
+      <c r="D129">
+        <v>152</v>
+      </c>
+      <c r="E129">
+        <v>8.5820000000000007</v>
+      </c>
+      <c r="F129" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.1496669865693332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>19</v>
+      </c>
+      <c r="D130">
+        <v>189</v>
+      </c>
+      <c r="E130">
+        <v>6.7229999999999999</v>
+      </c>
+      <c r="F130">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.9055344834868997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>19</v>
+      </c>
+      <c r="D131">
+        <v>189</v>
+      </c>
+      <c r="E131">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="F131" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.0310388024516683</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>19</v>
+      </c>
+      <c r="D132">
+        <v>189</v>
+      </c>
+      <c r="E132">
+        <v>9.0670000000000002</v>
+      </c>
+      <c r="F132" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.204641448663919</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>19</v>
+      </c>
+      <c r="D133">
+        <v>189</v>
+      </c>
+      <c r="E133">
+        <v>8.51</v>
+      </c>
+      <c r="F133" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.1412419425852827</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>19</v>
+      </c>
+      <c r="D134">
+        <v>189</v>
+      </c>
+      <c r="E134">
+        <v>10.211</v>
+      </c>
+      <c r="F134" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.3234655705734011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>19</v>
+      </c>
+      <c r="D135">
+        <v>189</v>
+      </c>
+      <c r="E135">
+        <v>10.615</v>
+      </c>
+      <c r="F135" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.3622680951552195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>19</v>
+      </c>
+      <c r="D136">
+        <v>189</v>
+      </c>
+      <c r="E136">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="F136" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>1.615022290728001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>19</v>
+      </c>
+      <c r="D137">
+        <v>189</v>
+      </c>
+      <c r="E137">
+        <v>7.5060000000000002</v>
+      </c>
+      <c r="F137" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>2.0157027007128292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+      <c r="D138">
+        <v>541</v>
+      </c>
+      <c r="E138">
+        <v>28.914999999999999</v>
+      </c>
+      <c r="F138">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.3643604916101815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>29</v>
+      </c>
+      <c r="D139">
+        <v>541</v>
+      </c>
+      <c r="E139">
+        <v>25.385000000000002</v>
+      </c>
+      <c r="F139" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.2341584483993575</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>29</v>
+      </c>
+      <c r="D140">
+        <v>541</v>
+      </c>
+      <c r="E140">
+        <v>24.888000000000002</v>
+      </c>
+      <c r="F140" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.214385759595336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>29</v>
+      </c>
+      <c r="D141">
+        <v>541</v>
+      </c>
+      <c r="E141">
+        <v>27.954999999999998</v>
+      </c>
+      <c r="F141" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.3305960744786085</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>29</v>
+      </c>
+      <c r="D142">
+        <v>541</v>
+      </c>
+      <c r="E142">
+        <v>24.472000000000001</v>
+      </c>
+      <c r="F142" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.1975296068486023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>29</v>
+      </c>
+      <c r="D143">
+        <v>541</v>
+      </c>
+      <c r="E143">
+        <v>30.853999999999999</v>
+      </c>
+      <c r="F143" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.4292664015897478</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>29</v>
+      </c>
+      <c r="D144">
+        <v>541</v>
+      </c>
+      <c r="E144">
+        <v>24.945</v>
+      </c>
+      <c r="F144" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.2166734013130007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <v>541</v>
+      </c>
+      <c r="E145">
+        <v>27.042000000000002</v>
+      </c>
+      <c r="F145" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>3.2973912129365663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>61</v>
+      </c>
+      <c r="D146">
+        <v>2432</v>
+      </c>
+      <c r="E146">
+        <v>115.48399999999999</v>
+      </c>
+      <c r="F146">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.7491319922274116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>61</v>
+      </c>
+      <c r="D147">
+        <v>2432</v>
+      </c>
+      <c r="E147">
+        <v>111.63800000000001</v>
+      </c>
+      <c r="F147" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.7152614937817461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>61</v>
+      </c>
+      <c r="D148">
+        <v>2432</v>
+      </c>
+      <c r="E148">
+        <v>117.18600000000001</v>
+      </c>
+      <c r="F148" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.7637624160828089</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>61</v>
+      </c>
+      <c r="D149">
+        <v>2432</v>
+      </c>
+      <c r="E149">
+        <v>110.348</v>
+      </c>
+      <c r="F149" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.7036390083880706</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>61</v>
+      </c>
+      <c r="D150">
+        <v>2432</v>
+      </c>
+      <c r="E150">
+        <v>107.453</v>
+      </c>
+      <c r="F150" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.6770535426615378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>61</v>
+      </c>
+      <c r="D151">
+        <v>2432</v>
+      </c>
+      <c r="E151">
+        <v>118.88200000000001</v>
+      </c>
+      <c r="F151" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.7781314045156851</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>61</v>
+      </c>
+      <c r="D152">
+        <v>2432</v>
+      </c>
+      <c r="E152">
+        <v>130.24700000000001</v>
+      </c>
+      <c r="F152" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.8694326477386625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>61</v>
+      </c>
+      <c r="D153">
+        <v>2432</v>
+      </c>
+      <c r="E153">
+        <v>121.944</v>
+      </c>
+      <c r="F153" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>4.8035619229595401</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>125</v>
+      </c>
+      <c r="D154">
+        <v>10307</v>
+      </c>
+      <c r="E154">
+        <v>526.15200000000004</v>
+      </c>
+      <c r="F154">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.2655901443769739</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>125</v>
+      </c>
+      <c r="D155">
+        <v>10307</v>
+      </c>
+      <c r="E155">
+        <v>525.45799999999997</v>
+      </c>
+      <c r="F155" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.2642702632409053</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>125</v>
+      </c>
+      <c r="D156">
+        <v>10307</v>
+      </c>
+      <c r="E156">
+        <v>481.56900000000002</v>
+      </c>
+      <c r="F156" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.177049523152089</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>125</v>
+      </c>
+      <c r="D157">
+        <v>10307</v>
+      </c>
+      <c r="E157">
+        <v>503.37700000000001</v>
+      </c>
+      <c r="F157" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.2213393923447535</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>125</v>
+      </c>
+      <c r="D158">
+        <v>10307</v>
+      </c>
+      <c r="E158">
+        <v>496.149</v>
+      </c>
+      <c r="F158" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.2068762848387191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>125</v>
+      </c>
+      <c r="D159">
+        <v>10307</v>
+      </c>
+      <c r="E159">
+        <v>525.649</v>
+      </c>
+      <c r="F159" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.2646336896134862</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>125</v>
+      </c>
+      <c r="D160">
+        <v>10307</v>
+      </c>
+      <c r="E160">
+        <v>510.52699999999999</v>
+      </c>
+      <c r="F160" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.2354435255303216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>125</v>
+      </c>
+      <c r="D161">
+        <v>10307</v>
+      </c>
+      <c r="E161">
+        <v>503.02</v>
+      </c>
+      <c r="F161" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>6.220629930740686</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>253</v>
+      </c>
+      <c r="D162">
+        <v>42438</v>
+      </c>
+      <c r="E162">
+        <v>2083.5500000000002</v>
+      </c>
+      <c r="F162">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6418284486547128</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>253</v>
+      </c>
+      <c r="D163">
+        <v>42438</v>
+      </c>
+      <c r="E163">
+        <v>2116.4299999999998</v>
+      </c>
+      <c r="F163" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.657485985943687</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>253</v>
+      </c>
+      <c r="D164">
+        <v>42438</v>
+      </c>
+      <c r="E164">
+        <v>2075.1999999999998</v>
+      </c>
+      <c r="F164" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6378128135621797</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>253</v>
+      </c>
+      <c r="D165">
+        <v>42438</v>
+      </c>
+      <c r="E165">
+        <v>2074.7199999999998</v>
+      </c>
+      <c r="F165" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6375814838005738</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>253</v>
+      </c>
+      <c r="D166">
+        <v>42438</v>
+      </c>
+      <c r="E166">
+        <v>2046.7</v>
+      </c>
+      <c r="F166" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6239840189854036</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>253</v>
+      </c>
+      <c r="D167">
+        <v>42438</v>
+      </c>
+      <c r="E167">
+        <v>2102.4299999999998</v>
+      </c>
+      <c r="F167" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6508490975948771</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>253</v>
+      </c>
+      <c r="D168">
+        <v>42438</v>
+      </c>
+      <c r="E168">
+        <v>2100.67</v>
+      </c>
+      <c r="F168" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6500116204456932</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>253</v>
+      </c>
+      <c r="D169">
+        <v>42438</v>
+      </c>
+      <c r="E169">
+        <v>2039.16</v>
+      </c>
+      <c r="F169" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>7.6202932373340149</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>509</v>
+      </c>
+      <c r="D170">
+        <v>172233</v>
+      </c>
+      <c r="E170">
+        <v>8468.65</v>
+      </c>
+      <c r="F170">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>9.0441263888743144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>509</v>
+      </c>
+      <c r="D171">
+        <v>172233</v>
+      </c>
+      <c r="E171">
+        <v>8443.08</v>
+      </c>
+      <c r="F171" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>9.0411024499295962</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>1021</v>
+      </c>
+      <c r="D172">
+        <v>693964</v>
+      </c>
+      <c r="E172">
+        <v>34173.5</v>
+      </c>
+      <c r="F172">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>10.439205768895157</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>1021</v>
+      </c>
+      <c r="D173">
+        <v>693964</v>
+      </c>
+      <c r="E173">
+        <v>34069.300000000003</v>
+      </c>
+      <c r="F173" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>10.436151964509103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
         <v>2045</v>
       </c>
-      <c r="D25">
-        <v>138199</v>
-      </c>
-      <c r="E25">
+      <c r="D174">
         <v>2785999</v>
       </c>
-      <c r="F25">
-        <f>LOG(Table1[[#This Row],[Time Taken]], 2)</f>
-        <v>17.076387650942575</v>
+      <c r="E174">
+        <v>137863</v>
+      </c>
+      <c r="F174">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>11.834015717409892</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>2045</v>
+      </c>
+      <c r="D175">
+        <v>2785999</v>
+      </c>
+      <c r="E175">
+        <v>137876</v>
+      </c>
+      <c r="F175" s="1">
+        <f>LOG(Table1[[#This Row],[Time Taken]], EXP(1))</f>
+        <v>11.83411000947601</v>
       </c>
     </row>
   </sheetData>
